--- a/xlsx/core.xlsx
+++ b/xlsx/core.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeyellowCHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{F62C9A87-53C7-CD43-8100-E638EB31EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4059CED3-2531-E24F-A665-E148EA50495E}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{F62C9A87-53C7-CD43-8100-E638EB31EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A223602-03D7-2244-BE7C-B12E4B3F8EF7}"/>
   <bookViews>
-    <workbookView xWindow="15680" yWindow="760" windowWidth="18880" windowHeight="20480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10840" yWindow="780" windowWidth="18880" windowHeight="20480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="text_1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18794" uniqueCount="4589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18796" uniqueCount="4590">
   <si>
     <t>data/text/text_1.asm</t>
   </si>
@@ -14078,12 +14078,15 @@
     <t>提高到等级@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>对</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14163,6 +14166,13 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -14197,7 +14207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -14211,6 +14221,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14227,10 +14238,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17902,8 +17909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1258" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E1268" sqref="E1268"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -18141,10 +18148,10 @@
       <c r="C11" t="s">
         <v>353</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="11" t="s">
         <v>358</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -18173,11 +18180,11 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>363</v>
+      <c r="F12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>4589</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>10</v>
@@ -18203,11 +18210,11 @@
       <c r="C13" t="s">
         <v>365</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>366</v>
+      <c r="F13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>56</v>
@@ -18232,10 +18239,12 @@
       <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1"/>
+      <c r="F14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>366</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
@@ -18254,12 +18263,10 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>371</v>
-      </c>
+      <c r="F15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="11"/>
       <c r="I15" s="1" t="s">
         <v>29</v>
       </c>
@@ -18284,11 +18291,11 @@
       <c r="C16" t="s">
         <v>375</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>57</v>
+      <c r="F16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>371</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>56</v>
@@ -18307,11 +18314,11 @@
       <c r="C17" t="s">
         <v>366</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>71</v>
+      <c r="F17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>10</v>
@@ -18339,10 +18346,12 @@
       <c r="C18" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="1"/>
+      <c r="F18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>75</v>
       </c>
@@ -18361,7 +18370,9 @@
       <c r="B19" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -45409,8 +45420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O656"/>
   <sheetViews>
-    <sheetView topLeftCell="F143" workbookViewId="0">
-      <selection activeCell="J169" sqref="J169"/>
+    <sheetView topLeftCell="H518" workbookViewId="0">
+      <selection activeCell="L546" sqref="L546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -69988,8 +69999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O132"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="F52" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -72750,8 +72761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O446"/>
   <sheetViews>
-    <sheetView topLeftCell="K179" workbookViewId="0">
-      <selection activeCell="M205" sqref="M205"/>
+    <sheetView topLeftCell="F416" workbookViewId="0">
+      <selection activeCell="J444" sqref="J444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/xlsx/core.xlsx
+++ b/xlsx/core.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeyellowCHS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeyellowCHS/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{F62C9A87-53C7-CD43-8100-E638EB31EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A223602-03D7-2244-BE7C-B12E4B3F8EF7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A22175-8C0A-F148-A865-35DCAAA23EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="780" windowWidth="18880" windowHeight="20480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10840" yWindow="780" windowWidth="27420" windowHeight="20480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="text_1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18796" uniqueCount="4590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18796" uniqueCount="4592">
   <si>
     <t>data/text/text_1.asm</t>
   </si>
@@ -14080,6 +14080,14 @@
   </si>
   <si>
     <t>对</t>
+  </si>
+  <si>
+    <t>打击攻击的抗性变强了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊攻击的抗性变强了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -17909,7 +17917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1326"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+    <sheetView zoomScale="112" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -59469,8 +59477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O279"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="H212" sqref="H212"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="G246" sqref="G246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -64395,7 +64403,7 @@
         <v>29</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>3322</v>
+        <v>4591</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>29</v>
@@ -64507,7 +64515,7 @@
         <v>29</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>3326</v>
+        <v>4590</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>29</v>

--- a/xlsx/core.xlsx
+++ b/xlsx/core.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeyellowCHS/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A22175-8C0A-F148-A865-35DCAAA23EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98338760-6E44-794E-9387-A729DA30D6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10840" yWindow="780" windowWidth="27420" windowHeight="20480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14082,11 +14082,11 @@
     <t>对</t>
   </si>
   <si>
-    <t>打击攻击的抗性变强了！</t>
+    <t>特殊攻击抗性变强了！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特殊攻击的抗性变强了！</t>
+    <t>打击攻击抗性变强了！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59478,7 +59478,7 @@
   <dimension ref="A1:O279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="G246" sqref="G246"/>
+      <selection activeCell="G237" sqref="G237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -64403,7 +64403,7 @@
         <v>29</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>4591</v>
+        <v>4590</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>29</v>
@@ -64515,7 +64515,7 @@
         <v>29</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>29</v>
